--- a/Code/Results/Cases/Case_2_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.683206963418627</v>
+        <v>1.374193943068803</v>
       </c>
       <c r="C2">
-        <v>0.3024734617581544</v>
+        <v>0.2344924882585957</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09459836041584424</v>
+        <v>0.2279316778279501</v>
       </c>
       <c r="F2">
-        <v>1.147396843528469</v>
+        <v>1.925295705760774</v>
       </c>
       <c r="G2">
-        <v>0.0007957842254034121</v>
+        <v>0.002447603289630147</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03404245973909781</v>
+        <v>0.03906683956150303</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4384592395303315</v>
+        <v>0.4946125413588902</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7578948976338324</v>
+        <v>1.309358077573656</v>
       </c>
       <c r="O2">
-        <v>1.861364882706454</v>
+        <v>3.200513877259709</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.335208225948691</v>
+        <v>1.275719050755981</v>
       </c>
       <c r="C3">
-        <v>0.2796166683969687</v>
+        <v>0.2268029899658757</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09152948292388174</v>
+        <v>0.2283203109745315</v>
       </c>
       <c r="F3">
-        <v>1.075114517299383</v>
+        <v>1.921500310126433</v>
       </c>
       <c r="G3">
-        <v>0.0008001792065213801</v>
+        <v>0.002450545400425724</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03283148426839944</v>
+        <v>0.03867317094348266</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3912571906751339</v>
+        <v>0.4837710350266491</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7833342195787907</v>
+        <v>1.321086245987644</v>
       </c>
       <c r="O3">
-        <v>1.765122685140597</v>
+        <v>3.205088444612898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.122341849481245</v>
+        <v>1.215578710516013</v>
       </c>
       <c r="C4">
-        <v>0.2655599626848044</v>
+        <v>0.2220431398109497</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08974873740638145</v>
+        <v>0.2286342329531657</v>
       </c>
       <c r="F4">
-        <v>1.032746287330809</v>
+        <v>1.920228432977993</v>
       </c>
       <c r="G4">
-        <v>0.000802966683807964</v>
+        <v>0.002452449050775297</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03209471568086997</v>
+        <v>0.03843551413975987</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3625638627233911</v>
+        <v>0.4772955714949916</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8000397113120101</v>
+        <v>1.328806723772871</v>
       </c>
       <c r="O4">
-        <v>1.71037619182411</v>
+        <v>3.209950593166553</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.035764244344136</v>
+        <v>1.191153878413161</v>
       </c>
       <c r="C5">
-        <v>0.2598245248409938</v>
+        <v>0.2200938981304432</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08904818924218283</v>
+        <v>0.2287811331394778</v>
       </c>
       <c r="F5">
-        <v>1.015958087368901</v>
+        <v>1.919976348500967</v>
       </c>
       <c r="G5">
-        <v>0.0008041254069475191</v>
+        <v>0.002453249314695333</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03179615562884663</v>
+        <v>0.03833970188750335</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3509377310507773</v>
+        <v>0.474702578844159</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8071122299879292</v>
+        <v>1.332083554277077</v>
       </c>
       <c r="O5">
-        <v>1.689094847113637</v>
+        <v>3.212447775773143</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.021397197113401</v>
+        <v>1.187103200432261</v>
       </c>
       <c r="C6">
-        <v>0.2588716809507332</v>
+        <v>0.2197696535966429</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08893335488783194</v>
+        <v>0.2288066729819018</v>
       </c>
       <c r="F6">
-        <v>1.013198418842109</v>
+        <v>1.919950570202474</v>
       </c>
       <c r="G6">
-        <v>0.000804319201674243</v>
+        <v>0.00245338368053224</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03174668070038678</v>
+        <v>0.03832385526565218</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3490110756017515</v>
+        <v>0.4742747880812601</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8083023869709294</v>
+        <v>1.332635564326701</v>
       </c>
       <c r="O6">
-        <v>1.685621375483265</v>
+        <v>3.212893570207314</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.121173602200088</v>
+        <v>1.215248971313656</v>
       </c>
       <c r="C7">
-        <v>0.2654826437421178</v>
+        <v>0.2220168902359063</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08973918904188771</v>
+        <v>0.2286361372206009</v>
       </c>
       <c r="F7">
-        <v>1.032517980999103</v>
+        <v>1.920223955323578</v>
       </c>
       <c r="G7">
-        <v>0.0008029822178219057</v>
+        <v>0.002452459743897212</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03209068242781754</v>
+        <v>0.03843421777327904</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3624068065655024</v>
+        <v>0.4772604156937774</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8001340315951637</v>
+        <v>1.328850387054445</v>
       </c>
       <c r="O7">
-        <v>1.710085103655587</v>
+        <v>3.209982183205796</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.563027476829234</v>
+        <v>1.340173472500965</v>
       </c>
       <c r="C8">
-        <v>0.2945961425956796</v>
+        <v>0.2318491960363644</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09351814901419431</v>
+        <v>0.2280500736069584</v>
       </c>
       <c r="F8">
-        <v>1.122038014499225</v>
+        <v>1.923767379350551</v>
       </c>
       <c r="G8">
-        <v>0.0007972814259644995</v>
+        <v>0.002448597603709564</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03362349333756143</v>
+        <v>0.03893026911963915</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4221202658905554</v>
+        <v>0.4908369023891339</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7664360406435975</v>
+        <v>1.313294210556933</v>
       </c>
       <c r="O8">
-        <v>1.827238397228513</v>
+        <v>3.201664698878091</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.437655909454918</v>
+        <v>1.587666642907607</v>
       </c>
       <c r="C9">
-        <v>0.3515875557043842</v>
+        <v>0.2508211807686109</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.10179462216961</v>
+        <v>0.2274966589475795</v>
       </c>
       <c r="F9">
-        <v>1.314960213086778</v>
+        <v>1.939115968954127</v>
       </c>
       <c r="G9">
-        <v>0.0007867868695024314</v>
+        <v>0.002441791691098559</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03668447615865489</v>
+        <v>0.03993463277479492</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5418051078985826</v>
+        <v>0.5188902271892886</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7093547841614054</v>
+        <v>1.286905745730003</v>
       </c>
       <c r="O9">
-        <v>2.094570852733568</v>
+        <v>3.201673794021588</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.087896783495296</v>
+        <v>1.770984083217741</v>
       </c>
       <c r="C10">
-        <v>0.3935217682022198</v>
+        <v>0.2645674429502947</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1084690494028031</v>
+        <v>0.2274513358704731</v>
       </c>
       <c r="F10">
-        <v>1.469372000165265</v>
+        <v>1.955519525856488</v>
       </c>
       <c r="G10">
-        <v>0.0007794627254125636</v>
+        <v>0.0024372547005415</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03896933808006153</v>
+        <v>0.04069110462112846</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.631759707202761</v>
+        <v>0.5403640168591579</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6734741500664398</v>
+        <v>1.270023404549868</v>
       </c>
       <c r="O10">
-        <v>2.318521439801998</v>
+        <v>3.211673120413508</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.38601980430667</v>
+        <v>1.854692832317539</v>
       </c>
       <c r="C11">
-        <v>0.4126430578001532</v>
+        <v>0.2707784187329025</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1116499855974808</v>
+        <v>0.2275087593019265</v>
       </c>
       <c r="F11">
-        <v>1.54286774041914</v>
+        <v>1.964096818834051</v>
       </c>
       <c r="G11">
-        <v>0.0007762072498736503</v>
+        <v>0.002435290306701383</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0400171692010467</v>
+        <v>0.04103913060181341</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6732286194082349</v>
+        <v>0.5503187200205701</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.658602898565789</v>
+        <v>1.262886306514609</v>
       </c>
       <c r="O11">
-        <v>2.4274934385964</v>
+        <v>3.218401712096437</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.499303318812849</v>
+        <v>1.886435491417899</v>
       </c>
       <c r="C12">
-        <v>0.4198930472567213</v>
+        <v>0.2731241829237945</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1128767194548601</v>
+        <v>0.2275416897257401</v>
       </c>
       <c r="F12">
-        <v>1.571211158106706</v>
+        <v>1.967505231927845</v>
       </c>
       <c r="G12">
-        <v>0.0007749848081908432</v>
+        <v>0.002434560674799748</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04041521572136375</v>
+        <v>0.04117146646019521</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.689020129640241</v>
+        <v>0.5541148818247166</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6531926186306691</v>
+        <v>1.260261672224956</v>
       </c>
       <c r="O12">
-        <v>2.469878973841475</v>
+        <v>3.221263807092555</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.474887357334296</v>
+        <v>1.879597211127361</v>
       </c>
       <c r="C13">
-        <v>0.4183311790046957</v>
+        <v>0.2726192581675093</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1126115108915258</v>
+        <v>0.2275341006802769</v>
       </c>
       <c r="F13">
-        <v>1.565083373624446</v>
+        <v>1.966764036165785</v>
       </c>
       <c r="G13">
-        <v>0.000775247633858762</v>
+        <v>0.002434717181733286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04032943271809231</v>
+        <v>0.04114294152621767</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6856150694797094</v>
+        <v>0.5532961342531308</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6543477752834477</v>
+        <v>1.260823464027652</v>
       </c>
       <c r="O13">
-        <v>2.460698994735964</v>
+        <v>3.220633422431092</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.395331535105299</v>
+        <v>1.857303447701781</v>
       </c>
       <c r="C14">
-        <v>0.4132393187310299</v>
+        <v>0.2709715310563467</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1117504569491814</v>
+        <v>0.2275112445456848</v>
       </c>
       <c r="F14">
-        <v>1.545189039336833</v>
+        <v>1.964374016756466</v>
       </c>
       <c r="G14">
-        <v>0.0007761064755609149</v>
+        <v>0.00243522999438585</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04004989130576675</v>
+        <v>0.04105000709778395</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6745259741868068</v>
+        <v>0.5506305021684028</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6581532848071276</v>
+        <v>1.262668812527735</v>
       </c>
       <c r="O14">
-        <v>2.430957471558145</v>
+        <v>3.218630879071753</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.346653944842899</v>
+        <v>1.843653553817887</v>
       </c>
       <c r="C15">
-        <v>0.4101216855375185</v>
+        <v>0.2699614399818131</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1112259677624508</v>
+        <v>0.2274987000844568</v>
       </c>
       <c r="F15">
-        <v>1.533071260703466</v>
+        <v>1.962930947130431</v>
       </c>
       <c r="G15">
-        <v>0.0007766338672539927</v>
+        <v>0.002435545959557456</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03987882896702288</v>
+        <v>0.0409931527252354</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6677453495197199</v>
+        <v>0.5490011736794997</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6605134544741773</v>
+        <v>1.263809303082617</v>
       </c>
       <c r="O15">
-        <v>2.412888910761723</v>
+        <v>3.217445191279154</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.068465251168107</v>
+        <v>1.765519758430059</v>
       </c>
       <c r="C16">
-        <v>0.3922732790807686</v>
+        <v>0.2641606803128411</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1082641948661092</v>
+        <v>0.2274491503525518</v>
       </c>
       <c r="F16">
-        <v>1.46463805923851</v>
+        <v>1.954981421721186</v>
       </c>
       <c r="G16">
-        <v>0.0007796769605620812</v>
+        <v>0.002437385074851215</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0389010331530848</v>
+        <v>0.04066843753820137</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6290614256773921</v>
+        <v>0.5397171793396893</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6744762662485044</v>
+        <v>1.270500750748951</v>
       </c>
       <c r="O16">
-        <v>2.311551006874794</v>
+        <v>3.211277311984105</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.898439751785247</v>
+        <v>1.717667206714339</v>
       </c>
       <c r="C17">
-        <v>0.3813372581074219</v>
+        <v>0.260591191143817</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1064852535493515</v>
+        <v>0.2274387151786605</v>
       </c>
       <c r="F17">
-        <v>1.423520236544746</v>
+        <v>1.950390289906309</v>
       </c>
       <c r="G17">
-        <v>0.0007815629060081724</v>
+        <v>0.002438538750143391</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03830337679837825</v>
+        <v>0.04047022408506251</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6054768805579158</v>
+        <v>0.5340692615286713</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6834222413936857</v>
+        <v>1.274744736854295</v>
       </c>
       <c r="O17">
-        <v>2.251269505484174</v>
+        <v>3.208052301515693</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.800860794463915</v>
+        <v>1.690173590065797</v>
       </c>
       <c r="C18">
-        <v>0.3750512282320955</v>
+        <v>0.2585341440423718</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1054755862146024</v>
+        <v>0.2274400609364449</v>
       </c>
       <c r="F18">
-        <v>1.40017369560745</v>
+        <v>1.947854562747253</v>
       </c>
       <c r="G18">
-        <v>0.0007826548758078806</v>
+        <v>0.002439211683680052</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.03796041193130861</v>
+        <v>0.04035658524366781</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5919626660642194</v>
+        <v>0.5308382659170263</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6887035075198256</v>
+        <v>1.277236853687334</v>
       </c>
       <c r="O18">
-        <v>2.217258645404456</v>
+        <v>3.206402498678102</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.767857554125214</v>
+        <v>1.680869908148054</v>
       </c>
       <c r="C19">
-        <v>0.3729235100876735</v>
+        <v>0.257836984807426</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1051360141294744</v>
+        <v>0.2274417797006976</v>
       </c>
       <c r="F19">
-        <v>1.392319758698662</v>
+        <v>1.94701403759025</v>
       </c>
       <c r="G19">
-        <v>0.0007830258573882614</v>
+        <v>0.002439441138688239</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0378444245868863</v>
+        <v>0.04031817280611705</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5873954709502271</v>
+        <v>0.5297473256618872</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6905146077658983</v>
+        <v>1.278089416751328</v>
       </c>
       <c r="O19">
-        <v>2.205853842751537</v>
+        <v>3.205879116199952</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.916516588577736</v>
+        <v>1.722758108835251</v>
       </c>
       <c r="C20">
-        <v>0.3825009754032749</v>
+        <v>0.2609715812473041</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1066732146617611</v>
+        <v>0.2274390658188103</v>
       </c>
       <c r="F20">
-        <v>1.427865593134754</v>
+        <v>1.950868159609854</v>
       </c>
       <c r="G20">
-        <v>0.0007813614007031037</v>
+        <v>0.002438414970316938</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.03836691614932164</v>
+        <v>0.04049128623939424</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6079821529672529</v>
+        <v>0.5346686787075612</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6824557870368153</v>
+        <v>1.274287669994457</v>
       </c>
       <c r="O20">
-        <v>2.25761741648509</v>
+        <v>3.208374373567324</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.41868792937106</v>
+        <v>1.863850485534556</v>
       </c>
       <c r="C21">
-        <v>0.4147346499912032</v>
+        <v>0.2714556775987944</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.112002755912485</v>
+        <v>0.2275176546701942</v>
       </c>
       <c r="F21">
-        <v>1.5510182166378</v>
+        <v>1.965071670695451</v>
       </c>
       <c r="G21">
-        <v>0.0007758539376961635</v>
+        <v>0.002435078982879178</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04013196495920823</v>
+        <v>0.04107728949625766</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.677780640511557</v>
+        <v>0.5514127447663668</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6570294086584809</v>
+        <v>1.262124671358933</v>
       </c>
       <c r="O21">
-        <v>2.439662040981574</v>
+        <v>3.219210544089378</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.749193427858756</v>
+        <v>1.956318089085642</v>
       </c>
       <c r="C22">
-        <v>0.4358561159523617</v>
+        <v>0.2782714615616158</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1156159233935377</v>
+        <v>0.2276341972002491</v>
       </c>
       <c r="F22">
-        <v>1.634514021773967</v>
+        <v>1.975289298433125</v>
       </c>
       <c r="G22">
-        <v>0.0007723144100840308</v>
+        <v>0.002432981701367984</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04129286768917595</v>
+        <v>0.04146345177336741</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7239165525816418</v>
+        <v>0.562510496654923</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6417072441292433</v>
+        <v>1.254630261118628</v>
       </c>
       <c r="O22">
-        <v>2.565220271964051</v>
+        <v>3.22812386742612</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.572565396564983</v>
+        <v>1.906943521665426</v>
       </c>
       <c r="C23">
-        <v>0.4245772162058188</v>
+        <v>0.2746370991034155</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1136751329952581</v>
+        <v>0.2275660443974949</v>
       </c>
       <c r="F23">
-        <v>1.589659899713396</v>
+        <v>1.969750419832621</v>
       </c>
       <c r="G23">
-        <v>0.0007741982629627394</v>
+        <v>0.00243409348970973</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04067258523334516</v>
+        <v>0.0412570642065333</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6992422283445734</v>
+        <v>0.5565733563601469</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6497620697120396</v>
+        <v>1.258588558456907</v>
       </c>
       <c r="O23">
-        <v>2.497570188012702</v>
+        <v>3.223198879280119</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.908343522349185</v>
+        <v>1.720456457500518</v>
       </c>
       <c r="C24">
-        <v>0.3819748551680391</v>
+        <v>0.2607996221360622</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1065881968363058</v>
+        <v>0.227438884412873</v>
       </c>
       <c r="F24">
-        <v>1.425900149218776</v>
+        <v>1.950651791461368</v>
       </c>
       <c r="G24">
-        <v>0.0007814524771959521</v>
+        <v>0.002438470900974425</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0383381880317728</v>
+        <v>0.04048176305158435</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6068493802942498</v>
+        <v>0.5343976321360628</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.682892291815989</v>
+        <v>1.274494147339055</v>
       </c>
       <c r="O24">
-        <v>2.254745521922189</v>
+        <v>3.208228128454692</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.199908038446779</v>
+        <v>1.520448948197327</v>
       </c>
       <c r="C25">
-        <v>0.3361684816525923</v>
+        <v>0.2457222667990067</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.09945636784186362</v>
+        <v>0.2275827869302276</v>
       </c>
       <c r="F25">
-        <v>1.26070340107357</v>
+        <v>1.934063864955348</v>
       </c>
       <c r="G25">
-        <v>0.0007895557322471464</v>
+        <v>0.0024435511693418</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03585026480257625</v>
+        <v>0.03965961473021196</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5091061545661972</v>
+        <v>0.5111488804184745</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7237767900973964</v>
+        <v>1.293604257801377</v>
       </c>
       <c r="O25">
-        <v>2.017767881074377</v>
+        <v>3.19991968341742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.374193943068803</v>
+        <v>2.683206963418343</v>
       </c>
       <c r="C2">
-        <v>0.2344924882585957</v>
+        <v>0.3024734617577707</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2279316778279501</v>
+        <v>0.09459836041585845</v>
       </c>
       <c r="F2">
-        <v>1.925295705760774</v>
+        <v>1.147396843528441</v>
       </c>
       <c r="G2">
-        <v>0.002447603289630147</v>
+        <v>0.0007957842253229268</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03906683956150303</v>
+        <v>0.03404245973916531</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4946125413588902</v>
+        <v>0.4384592395302889</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.309358077573656</v>
+        <v>0.7578948976338964</v>
       </c>
       <c r="O2">
-        <v>3.200513877259709</v>
+        <v>1.861364882706511</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.275719050755981</v>
+        <v>2.335208225948861</v>
       </c>
       <c r="C3">
-        <v>0.2268029899658757</v>
+        <v>0.2796166683971677</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2283203109745315</v>
+        <v>0.09152948292386398</v>
       </c>
       <c r="F3">
-        <v>1.921500310126433</v>
+        <v>1.075114517299383</v>
       </c>
       <c r="G3">
-        <v>0.002450545400425724</v>
+        <v>0.0008001792065493669</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03867317094348266</v>
+        <v>0.03283148426839588</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4837710350266491</v>
+        <v>0.3912571906751481</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.321086245987644</v>
+        <v>0.7833342195787907</v>
       </c>
       <c r="O3">
-        <v>3.205088444612898</v>
+        <v>1.765122685140653</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.215578710516013</v>
+        <v>2.122341849481245</v>
       </c>
       <c r="C4">
-        <v>0.2220431398109497</v>
+        <v>0.2655599626848044</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2286342329531657</v>
+        <v>0.08974873740638323</v>
       </c>
       <c r="F4">
-        <v>1.920228432977993</v>
+        <v>1.032746287330809</v>
       </c>
       <c r="G4">
-        <v>0.002452449050775297</v>
+        <v>0.0008029666838665623</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03843551413975987</v>
+        <v>0.03209471568096589</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4772955714949916</v>
+        <v>0.3625638627233485</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.328806723772871</v>
+        <v>0.800039711312003</v>
       </c>
       <c r="O4">
-        <v>3.209950593166553</v>
+        <v>1.710376191824082</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.191153878413161</v>
+        <v>2.035764244344193</v>
       </c>
       <c r="C5">
-        <v>0.2200938981304432</v>
+        <v>0.2598245248411359</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2287811331394778</v>
+        <v>0.08904818924218461</v>
       </c>
       <c r="F5">
-        <v>1.919976348500967</v>
+        <v>1.015958087368901</v>
       </c>
       <c r="G5">
-        <v>0.002453249314695333</v>
+        <v>0.0008041254069244803</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03833970188750335</v>
+        <v>0.031796155628939</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.474702578844159</v>
+        <v>0.3509377310507347</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.332083554277077</v>
+        <v>0.8071122299878795</v>
       </c>
       <c r="O5">
-        <v>3.212447775773143</v>
+        <v>1.689094847113665</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.187103200432261</v>
+        <v>2.021397197113345</v>
       </c>
       <c r="C6">
-        <v>0.2197696535966429</v>
+        <v>0.2588716809503779</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2288066729819018</v>
+        <v>0.08893335488782306</v>
       </c>
       <c r="F6">
-        <v>1.919950570202474</v>
+        <v>1.013198418842109</v>
       </c>
       <c r="G6">
-        <v>0.00245338368053224</v>
+        <v>0.0008043192017547107</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03832385526565218</v>
+        <v>0.03174668070031217</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4742747880812601</v>
+        <v>0.3490110756016662</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.332635564326701</v>
+        <v>0.8083023869709933</v>
       </c>
       <c r="O6">
-        <v>3.212893570207314</v>
+        <v>1.685621375483294</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.215248971313656</v>
+        <v>2.121173602200258</v>
       </c>
       <c r="C7">
-        <v>0.2220168902359063</v>
+        <v>0.2654826437423452</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2286361372206009</v>
+        <v>0.08973918904188594</v>
       </c>
       <c r="F7">
-        <v>1.920223955323578</v>
+        <v>1.032517980999103</v>
       </c>
       <c r="G7">
-        <v>0.002452459743897212</v>
+        <v>0.0008029822178217752</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03843421777327904</v>
+        <v>0.03209068242788149</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4772604156937774</v>
+        <v>0.3624068065655734</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.328850387054445</v>
+        <v>0.8001340315950927</v>
       </c>
       <c r="O7">
-        <v>3.209982183205796</v>
+        <v>1.710085103655615</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.340173472500965</v>
+        <v>2.563027476829291</v>
       </c>
       <c r="C8">
-        <v>0.2318491960363644</v>
+        <v>0.2945961425951538</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2280500736069584</v>
+        <v>0.0935181490141801</v>
       </c>
       <c r="F8">
-        <v>1.923767379350551</v>
+        <v>1.122038014499253</v>
       </c>
       <c r="G8">
-        <v>0.002448597603709564</v>
+        <v>0.0007972814259639336</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03893026911963915</v>
+        <v>0.03362349333746906</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4908369023891339</v>
+        <v>0.4221202658905128</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.313294210556933</v>
+        <v>0.7664360406436046</v>
       </c>
       <c r="O8">
-        <v>3.201664698878091</v>
+        <v>1.82723839722857</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.587666642907607</v>
+        <v>3.437655909454691</v>
       </c>
       <c r="C9">
-        <v>0.2508211807686109</v>
+        <v>0.3515875557043842</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2274966589475795</v>
+        <v>0.1017946221696064</v>
       </c>
       <c r="F9">
-        <v>1.939115968954127</v>
+        <v>1.314960213086778</v>
       </c>
       <c r="G9">
-        <v>0.002441791691098559</v>
+        <v>0.0007867868694721109</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03993463277479492</v>
+        <v>0.03668447615861936</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5188902271892886</v>
+        <v>0.541805107898611</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.286905745730003</v>
+        <v>0.7093547841614196</v>
       </c>
       <c r="O9">
-        <v>3.201673794021588</v>
+        <v>2.094570852733568</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.770984083217741</v>
+        <v>4.087896783495296</v>
       </c>
       <c r="C10">
-        <v>0.2645674429502947</v>
+        <v>0.3935217682021062</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2274513358704731</v>
+        <v>0.108469049402796</v>
       </c>
       <c r="F10">
-        <v>1.955519525856488</v>
+        <v>1.469372000165251</v>
       </c>
       <c r="G10">
-        <v>0.0024372547005415</v>
+        <v>0.0007794627253834869</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04069110462112846</v>
+        <v>0.03896933808010061</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5403640168591579</v>
+        <v>0.6317597072026757</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.270023404549868</v>
+        <v>0.6734741500664612</v>
       </c>
       <c r="O10">
-        <v>3.211673120413508</v>
+        <v>2.318521439802169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.854692832317539</v>
+        <v>4.386019804306841</v>
       </c>
       <c r="C11">
-        <v>0.2707784187329025</v>
+        <v>0.412643057800409</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2275087593019265</v>
+        <v>0.1116499855975093</v>
       </c>
       <c r="F11">
-        <v>1.964096818834051</v>
+        <v>1.54286774041914</v>
       </c>
       <c r="G11">
-        <v>0.002435290306701383</v>
+        <v>0.0007762072498746884</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04103913060181341</v>
+        <v>0.04001716920095433</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5503187200205701</v>
+        <v>0.6732286194082491</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.262886306514609</v>
+        <v>0.6586028985657393</v>
       </c>
       <c r="O11">
-        <v>3.218401712096437</v>
+        <v>2.4274934385964</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.886435491417899</v>
+        <v>4.499303318812736</v>
       </c>
       <c r="C12">
-        <v>0.2731241829237945</v>
+        <v>0.4198930472563518</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2275416897257401</v>
+        <v>0.1128767194548921</v>
       </c>
       <c r="F12">
-        <v>1.967505231927845</v>
+        <v>1.571211158106735</v>
       </c>
       <c r="G12">
-        <v>0.002434560674799748</v>
+        <v>0.0007749848082215793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04117146646019521</v>
+        <v>0.04041521572126072</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5541148818247166</v>
+        <v>0.689020129640241</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.260261672224956</v>
+        <v>0.6531926186306194</v>
       </c>
       <c r="O12">
-        <v>3.221263807092555</v>
+        <v>2.469878973841531</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.879597211127361</v>
+        <v>4.474887357334524</v>
       </c>
       <c r="C13">
-        <v>0.2726192581675093</v>
+        <v>0.4183311790047526</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2275341006802769</v>
+        <v>0.1126115108915542</v>
       </c>
       <c r="F13">
-        <v>1.966764036165785</v>
+        <v>1.565083373624461</v>
       </c>
       <c r="G13">
-        <v>0.002434717181733286</v>
+        <v>0.0007752476338295591</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04114294152621767</v>
+        <v>0.04032943271802836</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5532961342531308</v>
+        <v>0.6856150694795673</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.260823464027652</v>
+        <v>0.6543477752835116</v>
       </c>
       <c r="O13">
-        <v>3.220633422431092</v>
+        <v>2.460698994735964</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.857303447701781</v>
+        <v>4.395331535105242</v>
       </c>
       <c r="C14">
-        <v>0.2709715310563467</v>
+        <v>0.413239318731371</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2275112445456848</v>
+        <v>0.111750456949185</v>
       </c>
       <c r="F14">
-        <v>1.964374016756466</v>
+        <v>1.545189039336833</v>
       </c>
       <c r="G14">
-        <v>0.00243522999438585</v>
+        <v>0.0007761064755328651</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04105000709778395</v>
+        <v>0.04004989130572767</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5506305021684028</v>
+        <v>0.674525974186821</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.262668812527735</v>
+        <v>0.6581532848071419</v>
       </c>
       <c r="O14">
-        <v>3.218630879071753</v>
+        <v>2.430957471558116</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.843653553817887</v>
+        <v>4.346653944842899</v>
       </c>
       <c r="C15">
-        <v>0.2699614399818131</v>
+        <v>0.4101216855374048</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2274987000844568</v>
+        <v>0.1112259677624472</v>
       </c>
       <c r="F15">
-        <v>1.962930947130431</v>
+        <v>1.533071260703451</v>
       </c>
       <c r="G15">
-        <v>0.002435545959557456</v>
+        <v>0.0007766338672537398</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0409931527252354</v>
+        <v>0.03987882896699446</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5490011736794997</v>
+        <v>0.6677453495197625</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.263809303082617</v>
+        <v>0.6605134544741702</v>
       </c>
       <c r="O15">
-        <v>3.217445191279154</v>
+        <v>2.412888910761751</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.765519758430059</v>
+        <v>4.068465251168107</v>
       </c>
       <c r="C16">
-        <v>0.2641606803128411</v>
+        <v>0.392273279080797</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2274491503525518</v>
+        <v>0.1082641948661198</v>
       </c>
       <c r="F16">
-        <v>1.954981421721186</v>
+        <v>1.46463805923851</v>
       </c>
       <c r="G16">
-        <v>0.002437385074851215</v>
+        <v>0.0007796769605606389</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04066843753820137</v>
+        <v>0.0389010331530919</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5397171793396893</v>
+        <v>0.6290614256774774</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.270500750748951</v>
+        <v>0.6744762662484902</v>
       </c>
       <c r="O16">
-        <v>3.211277311984105</v>
+        <v>2.311551006874737</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.717667206714339</v>
+        <v>3.898439751785133</v>
       </c>
       <c r="C17">
-        <v>0.260591191143817</v>
+        <v>0.3813372581070809</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2274387151786605</v>
+        <v>0.1064852535493728</v>
       </c>
       <c r="F17">
-        <v>1.950390289906309</v>
+        <v>1.423520236544746</v>
       </c>
       <c r="G17">
-        <v>0.002438538750143391</v>
+        <v>0.000781562906009595</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04047022408506251</v>
+        <v>0.03830337679842799</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5340692615286713</v>
+        <v>0.6054768805579158</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.274744736854295</v>
+        <v>0.683422241393707</v>
       </c>
       <c r="O17">
-        <v>3.208052301515693</v>
+        <v>2.251269505484203</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.690173590065797</v>
+        <v>3.800860794463915</v>
       </c>
       <c r="C18">
-        <v>0.2585341440423718</v>
+        <v>0.3750512282322234</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2274400609364449</v>
+        <v>0.1054755862146166</v>
       </c>
       <c r="F18">
-        <v>1.947854562747253</v>
+        <v>1.400173695607435</v>
       </c>
       <c r="G18">
-        <v>0.002439211683680052</v>
+        <v>0.0007826548758085883</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04035658524366781</v>
+        <v>0.03796041193135835</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5308382659170263</v>
+        <v>0.5919626660642052</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.277236853687334</v>
+        <v>0.6887035075198256</v>
       </c>
       <c r="O18">
-        <v>3.206402498678102</v>
+        <v>2.217258645404456</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.680869908148054</v>
+        <v>3.767857554125214</v>
       </c>
       <c r="C19">
-        <v>0.257836984807426</v>
+        <v>0.3729235100879293</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2274417797006976</v>
+        <v>0.1051360141294744</v>
       </c>
       <c r="F19">
-        <v>1.94701403759025</v>
+        <v>1.39231975869869</v>
       </c>
       <c r="G19">
-        <v>0.002439441138688239</v>
+        <v>0.0007830258573586146</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04031817280611705</v>
+        <v>0.03784442458693604</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5297473256618872</v>
+        <v>0.5873954709501703</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.278089416751328</v>
+        <v>0.6905146077658415</v>
       </c>
       <c r="O19">
-        <v>3.205879116199952</v>
+        <v>2.205853842751594</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.722758108835251</v>
+        <v>3.916516588577963</v>
       </c>
       <c r="C20">
-        <v>0.2609715812473041</v>
+        <v>0.382500975403488</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2274390658188103</v>
+        <v>0.1066732146617611</v>
       </c>
       <c r="F20">
-        <v>1.950868159609854</v>
+        <v>1.427865593134769</v>
       </c>
       <c r="G20">
-        <v>0.002438414970316938</v>
+        <v>0.0007813614007035668</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04049128623939424</v>
+        <v>0.03836691614932164</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5346686787075612</v>
+        <v>0.6079821529672387</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.274287669994457</v>
+        <v>0.6824557870368224</v>
       </c>
       <c r="O20">
-        <v>3.208374373567324</v>
+        <v>2.257617416485118</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.863850485534556</v>
+        <v>4.418687929370833</v>
       </c>
       <c r="C21">
-        <v>0.2714556775987944</v>
+        <v>0.4147346499913169</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2275176546701942</v>
+        <v>0.1120027559125063</v>
       </c>
       <c r="F21">
-        <v>1.965071670695451</v>
+        <v>1.551018216637814</v>
       </c>
       <c r="G21">
-        <v>0.002435078982879178</v>
+        <v>0.0007758539376987093</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04107728949625766</v>
+        <v>0.04013196495916915</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5514127447663668</v>
+        <v>0.6777806405115285</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.262124671358933</v>
+        <v>0.6570294086584951</v>
       </c>
       <c r="O21">
-        <v>3.219210544089378</v>
+        <v>2.439662040981545</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.956318089085642</v>
+        <v>4.749193427858529</v>
       </c>
       <c r="C22">
-        <v>0.2782714615616158</v>
+        <v>0.4358561159519923</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2276341972002491</v>
+        <v>0.1156159233935483</v>
       </c>
       <c r="F22">
-        <v>1.975289298433125</v>
+        <v>1.634514021773981</v>
       </c>
       <c r="G22">
-        <v>0.002432981701367984</v>
+        <v>0.0007723144100839034</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04146345177336741</v>
+        <v>0.04129286768911555</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.562510496654923</v>
+        <v>0.7239165525816418</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.254630261118628</v>
+        <v>0.6417072441291793</v>
       </c>
       <c r="O22">
-        <v>3.22812386742612</v>
+        <v>2.565220271963994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.906943521665426</v>
+        <v>4.572565396565096</v>
       </c>
       <c r="C23">
-        <v>0.2746370991034155</v>
+        <v>0.4245772162057335</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2275660443974949</v>
+        <v>0.1136751329952439</v>
       </c>
       <c r="F23">
-        <v>1.969750419832621</v>
+        <v>1.589659899713396</v>
       </c>
       <c r="G23">
-        <v>0.00243409348970973</v>
+        <v>0.000774198262934034</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0412570642065333</v>
+        <v>0.04067258523335227</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5565733563601469</v>
+        <v>0.699242228344616</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.258588558456907</v>
+        <v>0.6497620697121036</v>
       </c>
       <c r="O23">
-        <v>3.223198879280119</v>
+        <v>2.497570188012759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.720456457500518</v>
+        <v>3.908343522349128</v>
       </c>
       <c r="C24">
-        <v>0.2607996221360622</v>
+        <v>0.3819748551680675</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.227438884412873</v>
+        <v>0.1065881968363094</v>
       </c>
       <c r="F24">
-        <v>1.950651791461368</v>
+        <v>1.425900149218762</v>
       </c>
       <c r="G24">
-        <v>0.002438470900974425</v>
+        <v>0.0007814524771972881</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04048176305158435</v>
+        <v>0.03833818803177635</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5343976321360628</v>
+        <v>0.6068493802941788</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.274494147339055</v>
+        <v>0.682892291815925</v>
       </c>
       <c r="O24">
-        <v>3.208228128454692</v>
+        <v>2.254745521922189</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.520448948197327</v>
+        <v>3.199908038446836</v>
       </c>
       <c r="C25">
-        <v>0.2457222667990067</v>
+        <v>0.3361684816528054</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2275827869302276</v>
+        <v>0.09945636784188494</v>
       </c>
       <c r="F25">
-        <v>1.934063864955348</v>
+        <v>1.26070340107357</v>
       </c>
       <c r="G25">
-        <v>0.0024435511693418</v>
+        <v>0.0007895557322765538</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03965961473021196</v>
+        <v>0.0358502648025727</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5111488804184745</v>
+        <v>0.5091061545660409</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.293604257801377</v>
+        <v>0.7237767900973324</v>
       </c>
       <c r="O25">
-        <v>3.19991968341742</v>
+        <v>2.017767881074349</v>
       </c>
     </row>
   </sheetData>
